--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itgb1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itgb1</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H2">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I2">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J2">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>8.239377895805333</v>
+        <v>1509.442713986081</v>
       </c>
       <c r="R2">
-        <v>74.154401062248</v>
+        <v>13584.98442587473</v>
       </c>
       <c r="S2">
-        <v>0.001051003868735533</v>
+        <v>0.2245214689463551</v>
       </c>
       <c r="T2">
-        <v>0.001164594409302711</v>
+        <v>0.2389016100942831</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H3">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I3">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J3">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>8.81732112563</v>
+        <v>1831.136855377737</v>
       </c>
       <c r="R3">
-        <v>79.35589013067001</v>
+        <v>16480.23169839963</v>
       </c>
       <c r="S3">
-        <v>0.001124725523226519</v>
+        <v>0.2723717387892933</v>
       </c>
       <c r="T3">
-        <v>0.001246283762899518</v>
+        <v>0.2898165919112566</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H4">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I4">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J4">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>4.427464991857333</v>
+        <v>1033.767498750489</v>
       </c>
       <c r="R4">
-        <v>39.847184926716</v>
+        <v>9303.907488754397</v>
       </c>
       <c r="S4">
-        <v>0.000564761429076117</v>
+        <v>0.1537673442111161</v>
       </c>
       <c r="T4">
-        <v>0.000625799792424322</v>
+        <v>0.1636158282962893</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H5">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I5">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J5">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>10.0895251088505</v>
+        <v>1127.401368388955</v>
       </c>
       <c r="R5">
-        <v>60.53715065310301</v>
+        <v>6764.408210333727</v>
       </c>
       <c r="S5">
-        <v>0.001287006137745513</v>
+        <v>0.1676948777038206</v>
       </c>
       <c r="T5">
-        <v>0.0009507355759847396</v>
+        <v>0.1189569278935452</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.059611</v>
+        <v>12.37971233333334</v>
       </c>
       <c r="H6">
-        <v>0.178833</v>
+        <v>37.13913700000001</v>
       </c>
       <c r="I6">
-        <v>0.004672740604968267</v>
+        <v>0.9837801504895439</v>
       </c>
       <c r="J6">
-        <v>0.004702393918265596</v>
+        <v>0.9873107942640003</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>5.058407865023668</v>
+        <v>1112.13925668377</v>
       </c>
       <c r="R6">
-        <v>45.525670785213</v>
+        <v>10009.25331015393</v>
       </c>
       <c r="S6">
-        <v>0.0006452436461845865</v>
+        <v>0.1654247208389586</v>
       </c>
       <c r="T6">
-        <v>0.0007149803776543046</v>
+        <v>0.176019836068626</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H7">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I7">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J7">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>1711.112515403119</v>
+        <v>8.426210651899</v>
       </c>
       <c r="R7">
-        <v>15400.01263862808</v>
+        <v>75.835895867091</v>
       </c>
       <c r="S7">
-        <v>0.2182671915613951</v>
+        <v>0.001253353423542533</v>
       </c>
       <c r="T7">
-        <v>0.2418571030879507</v>
+        <v>0.001333628148375581</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H8">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I8">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J8">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>1831.136855377737</v>
+        <v>10.22201421286333</v>
       </c>
       <c r="R8">
-        <v>16480.23169839963</v>
+        <v>91.99812791577</v>
       </c>
       <c r="S8">
-        <v>0.233577333571021</v>
+        <v>0.001520469525207671</v>
       </c>
       <c r="T8">
-        <v>0.2588219367298024</v>
+        <v>0.001617852490347782</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H9">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I9">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J9">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>919.4736368304139</v>
+        <v>5.770833585698222</v>
       </c>
       <c r="R9">
-        <v>8275.262731473726</v>
+        <v>51.937502271284</v>
       </c>
       <c r="S9">
-        <v>0.1172868099666935</v>
+        <v>0.0008583803954270994</v>
       </c>
       <c r="T9">
-        <v>0.1299629499332811</v>
+        <v>0.0009133579051627284</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H10">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I10">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J10">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>2095.341772953195</v>
+        <v>6.293528950295833</v>
       </c>
       <c r="R10">
-        <v>12572.05063771917</v>
+        <v>37.76117370177501</v>
       </c>
       <c r="S10">
-        <v>0.267278954497053</v>
+        <v>0.0009361285139767568</v>
       </c>
       <c r="T10">
-        <v>0.1974439773826484</v>
+        <v>0.0006640570878551507</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>12.37971233333334</v>
+        <v>0.06910766666666666</v>
       </c>
       <c r="H11">
-        <v>37.13913700000001</v>
+        <v>0.207323</v>
       </c>
       <c r="I11">
-        <v>0.9704112411768488</v>
+        <v>0.005491787602386767</v>
       </c>
       <c r="J11">
-        <v>0.9765694919753783</v>
+        <v>0.005511496828781867</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>1050.504675876329</v>
+        <v>6.208330772829999</v>
       </c>
       <c r="R11">
-        <v>9454.542082886959</v>
+        <v>55.87497695547</v>
       </c>
       <c r="S11">
-        <v>0.1340009515806864</v>
+        <v>0.0009234557442327056</v>
       </c>
       <c r="T11">
-        <v>0.1484835248416957</v>
+        <v>0.0009826011970406243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H12">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I12">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J12">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>10.57620189850756</v>
+        <v>16.460379765</v>
       </c>
       <c r="R12">
-        <v>95.18581708656801</v>
+        <v>98.76227858999999</v>
       </c>
       <c r="S12">
-        <v>0.001349085968919873</v>
+        <v>0.00244839278099741</v>
       </c>
       <c r="T12">
-        <v>0.001494892667676913</v>
+        <v>0.001736804889285834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H13">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I13">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J13">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>11.31805939816333</v>
+        <v>19.96843455</v>
       </c>
       <c r="R13">
-        <v>101.86253458347</v>
+        <v>119.8106073</v>
       </c>
       <c r="S13">
-        <v>0.001443716305341951</v>
+        <v>0.002970197024493697</v>
       </c>
       <c r="T13">
-        <v>0.00159975047460409</v>
+        <v>0.002106954715076963</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H14">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I14">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J14">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>5.683167375572888</v>
+        <v>11.27317086</v>
       </c>
       <c r="R14">
-        <v>51.148506380156</v>
+        <v>67.63902516</v>
       </c>
       <c r="S14">
-        <v>0.0007249371219445511</v>
+        <v>0.001676823411526822</v>
       </c>
       <c r="T14">
-        <v>0.0008032869758399199</v>
+        <v>0.001189480348991365</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H15">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I15">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J15">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>12.9510814967705</v>
+        <v>12.2942424375</v>
       </c>
       <c r="R15">
-        <v>77.70648898062301</v>
+        <v>49.17696975</v>
       </c>
       <c r="S15">
-        <v>0.001652022389256433</v>
+        <v>0.001828702305873379</v>
       </c>
       <c r="T15">
-        <v>0.001220379928055923</v>
+        <v>0.0008648119780289244</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.07651766666666666</v>
+        <v>0.135</v>
       </c>
       <c r="H16">
-        <v>0.229553</v>
+        <v>0.27</v>
       </c>
       <c r="I16">
-        <v>0.005998007213949779</v>
+        <v>0.01072806190806925</v>
       </c>
       <c r="J16">
-        <v>0.006036070697911585</v>
+        <v>0.007177708907217743</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>6.493056095014778</v>
+        <v>12.12781005</v>
       </c>
       <c r="R16">
-        <v>58.43750485513301</v>
+        <v>72.7668603</v>
       </c>
       <c r="S16">
-        <v>0.0008282454284869706</v>
+        <v>0.001803946385177939</v>
       </c>
       <c r="T16">
-        <v>0.0009177606517347391</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-      <c r="G17">
-        <v>0.2413405</v>
-      </c>
-      <c r="H17">
-        <v>0.482681</v>
-      </c>
-      <c r="I17">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J17">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>138.2190853333333</v>
-      </c>
-      <c r="N17">
-        <v>414.657256</v>
-      </c>
-      <c r="O17">
-        <v>0.2249223651785973</v>
-      </c>
-      <c r="P17">
-        <v>0.2476599003709697</v>
-      </c>
-      <c r="Q17">
-        <v>33.35786316388933</v>
-      </c>
-      <c r="R17">
-        <v>200.147178983336</v>
-      </c>
-      <c r="S17">
-        <v>0.004255083779546859</v>
-      </c>
-      <c r="T17">
-        <v>0.003143310206039389</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
-      </c>
-      <c r="G18">
-        <v>0.2413405</v>
-      </c>
-      <c r="H18">
-        <v>0.482681</v>
-      </c>
-      <c r="I18">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J18">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>147.91433</v>
-      </c>
-      <c r="N18">
-        <v>443.74299</v>
-      </c>
-      <c r="O18">
-        <v>0.2406993279341594</v>
-      </c>
-      <c r="P18">
-        <v>0.2650317656414439</v>
-      </c>
-      <c r="Q18">
-        <v>35.69771835936501</v>
-      </c>
-      <c r="R18">
-        <v>214.18631015619</v>
-      </c>
-      <c r="S18">
-        <v>0.004553552534569958</v>
-      </c>
-      <c r="T18">
-        <v>0.003363794674137897</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.5</v>
-      </c>
-      <c r="G19">
-        <v>0.2413405</v>
-      </c>
-      <c r="H19">
-        <v>0.482681</v>
-      </c>
-      <c r="I19">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J19">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>74.27261733333333</v>
-      </c>
-      <c r="N19">
-        <v>222.817852</v>
-      </c>
-      <c r="O19">
-        <v>0.1208629960061633</v>
-      </c>
-      <c r="P19">
-        <v>0.1330811078998542</v>
-      </c>
-      <c r="Q19">
-        <v>17.92499060353533</v>
-      </c>
-      <c r="R19">
-        <v>107.549943621212</v>
-      </c>
-      <c r="S19">
-        <v>0.002286487488449189</v>
-      </c>
-      <c r="T19">
-        <v>0.001689071198308837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.5</v>
-      </c>
-      <c r="G20">
-        <v>0.2413405</v>
-      </c>
-      <c r="H20">
-        <v>0.482681</v>
-      </c>
-      <c r="I20">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J20">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>169.2560955</v>
-      </c>
-      <c r="N20">
-        <v>338.512191</v>
-      </c>
-      <c r="O20">
-        <v>0.275428543235871</v>
-      </c>
-      <c r="P20">
-        <v>0.2021811852664618</v>
-      </c>
-      <c r="Q20">
-        <v>40.84835071601776</v>
-      </c>
-      <c r="R20">
-        <v>163.393402864071</v>
-      </c>
-      <c r="S20">
-        <v>0.005210560211816122</v>
-      </c>
-      <c r="T20">
-        <v>0.002566092379772694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.5</v>
-      </c>
-      <c r="G21">
-        <v>0.2413405</v>
-      </c>
-      <c r="H21">
-        <v>0.482681</v>
-      </c>
-      <c r="I21">
-        <v>0.01891801100423318</v>
-      </c>
-      <c r="J21">
-        <v>0.01269204340844451</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>84.85695366666668</v>
-      </c>
-      <c r="N21">
-        <v>254.570861</v>
-      </c>
-      <c r="O21">
-        <v>0.138086767645209</v>
-      </c>
-      <c r="P21">
-        <v>0.1520460408212704</v>
-      </c>
-      <c r="Q21">
-        <v>20.47941962639017</v>
-      </c>
-      <c r="R21">
-        <v>122.876517758341</v>
-      </c>
-      <c r="S21">
-        <v>0.002612326989851055</v>
-      </c>
-      <c r="T21">
-        <v>0.00192977495018569</v>
+        <v>0.001279656975834657</v>
       </c>
     </row>
   </sheetData>
